--- a/biology/Médecine/Hôpital_Maison-Blanche_(Reims)/Hôpital_Maison-Blanche_(Reims).xlsx
+++ b/biology/Médecine/Hôpital_Maison-Blanche_(Reims)/Hôpital_Maison-Blanche_(Reims).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Maison-Blanche_(Reims)</t>
+          <t>Hôpital_Maison-Blanche_(Reims)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’  Hôpital Maison-Blanche  est actuellement situé 45 rue Cognacq-Jay à Reims dans le Quartier Sainte-Anne - Wilson à Reims. Ce site est desservi par les lignes de bus 4, 7 et 40, arrêt Maison-Blanche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Maison-Blanche_(Reims)</t>
+          <t>Hôpital_Maison-Blanche_(Reims)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours des années 1920-1930, alors que la ville de Reims se reconstruit, le quartier neuf de Maison-Blanche voit le jour sur la rive gauche de la Vesle, alors très peu urbanisée. Au-delà de la voie ferrée, en pleine campagne, une cinquantaine d’hectares est affectée à la construction du nouvel hôpital. Le chantier débute par l’hôpital d’enfants offert par les Américains et se poursuit par l’hôpital civil Maison-Blanche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des années 1920-1930, alors que la ville de Reims se reconstruit, le quartier neuf de Maison-Blanche voit le jour sur la rive gauche de la Vesle, alors très peu urbanisée. Au-delà de la voie ferrée, en pleine campagne, une cinquantaine d’hectares est affectée à la construction du nouvel hôpital. Le chantier débute par l’hôpital d’enfants offert par les Américains et se poursuit par l’hôpital civil Maison-Blanche.
 Sa construction fut décidée le 8 juillet 1920 et les travaux confiés à Hippolyte Portevin et Marcel Portevin, qui proposent un plan en peigne présentant une série de pavillons parallèles en briques rouges. 
-L’hôpital Maison Blanche est construit entre 1926 et 1933[2].
+L’hôpital Maison Blanche est construit entre 1926 et 1933.
 Le 2 juin 1935, l’hôpital fut inauguré par le président de la République, Albert Lebrun en présence du maire de Reims Paul Marchandeau. Il pouvait accueillir 7 000 malades. 
-Pendant la deuxième guerre mondiale, l'hôpital a été utilisé par les autorités militaires allemandes comme maison de convalescence pour les soldats allemands du front russe affectés par de graves blessures et des gelures[3].
+Pendant la deuxième guerre mondiale, l'hôpital a été utilisé par les autorités militaires allemandes comme maison de convalescence pour les soldats allemands du front russe affectés par de graves blessures et des gelures.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Maison-Blanche_(Reims)</t>
+          <t>Hôpital_Maison-Blanche_(Reims)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan traduit une organisation en peigne présentant une série de pavillons parallèles. Comme le lycée Franklin-Roosevelt construit par l'architecte Hippolyte poitevin, les bâtiments sont en briques rouges et sur trois niveaux.  
 La grille de la porte principale sur les dessins de l’architecte a été exécutée par le ferronnier Roze.
